--- a/xlsx/能源开发_intext.xlsx
+++ b/xlsx/能源开发_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="323">
   <si>
     <t>能源开发</t>
   </si>
@@ -29,7 +29,7 @@
     <t>REN21</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_能源开发</t>
+    <t>政策_政策_混合动力车辆_能源开发</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E7%9F%B3%E7%87%83%E6%96%99</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E5%8B%95%E5%8A%9B</t>
   </si>
   <si>
-    <t>核動力</t>
+    <t>核动力</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Biomass_heating_system</t>
@@ -59,19 +59,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E7%86%B1%E8%83%BD</t>
   </si>
   <si>
-    <t>太陽熱能</t>
+    <t>太阳热能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%86%B1%E8%83%BD</t>
   </si>
   <si>
-    <t>地熱能</t>
+    <t>地热能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%8A%9B%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>水力發電</t>
+    <t>水力发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%99%E9%86%87</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E8%83%BD</t>
   </si>
   <si>
-    <t>風能</t>
+    <t>风能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B%E8%83%BD</t>
@@ -173,19 +173,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%86%B1</t>
   </si>
   <si>
-    <t>地熱</t>
+    <t>地热</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>發電</t>
+    <t>发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E8%83%BD%E7%86%B1%E6%B0%B4%E5%99%A8</t>
   </si>
   <si>
-    <t>太陽能熱水器</t>
+    <t>太阳能热水器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BC%AF%E7%89%B9%E9%A1%B6%E7%82%B9</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%BA%90%E5%9B%9E%E6%94%B6</t>
   </si>
   <si>
-    <t>資源回收</t>
+    <t>资源回收</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E6%9D%90%E6%96%99</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%83%8C%E6%99%AF%E8%BC%BB%E5%B0%84</t>
   </si>
   <si>
-    <t>背景輻射</t>
+    <t>背景辐射</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -287,13 +287,13 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%92%B0%E5%A2%83%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>Template talk-環境科技</t>
+    <t>Template talk-环境科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>環境科技</t>
+    <t>环境科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%82%E7%94%A8%E6%8A%80%E6%9C%AF</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>環境設計</t>
+    <t>环境设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E5%BD%B1%E5%93%8D%E8%AF%84%E4%BB%B7</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%BA%8C%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>永續設計</t>
+    <t>永续设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%9F%93</t>
@@ -341,13 +341,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B0%A3%E6%93%B4%E6%95%A3%E6%A8%A1%E5%BC%8F</t>
   </si>
   <si>
-    <t>大氣擴散模式</t>
+    <t>大气扩散模式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>工業生態學</t>
+    <t>工业生态学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_solid_waste_treatment_technologies</t>
@@ -377,19 +377,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%B0%B4%E8%99%95%E7%90%86</t>
   </si>
   <si>
-    <t>污水處理</t>
+    <t>污水处理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E6%B0%B4%E8%99%95%E7%90%86%E6%8A%80%E8%A1%93%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>廢水處理技術列表</t>
+    <t>废水处理技术列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%B7%A8%E5%8C%96</t>
   </si>
   <si>
-    <t>水淨化</t>
+    <t>水净化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%AA%E6%B5%81%E7%AB%99</t>
@@ -443,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%8C%81%E7%BA%8C%E8%83%BD%E6%BA%90</t>
   </si>
   <si>
-    <t>可持續能源</t>
+    <t>可持续能源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%8C%81%E7%BB%AD%E4%BA%A4%E9%80%9A%E7%B3%BB%E7%BB%9F</t>
@@ -455,13 +455,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8B%95%E8%BC%89%E5%85%B7</t>
   </si>
   <si>
-    <t>電動載具</t>
+    <t>电动载具</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8B%95%E5%8A%9B%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>混合動力車輛</t>
+    <t>混合动力车辆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E8%82%B2%E6%8E%A7%E5%88%B6</t>
@@ -473,13 +473,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>綠色建築</t>
+    <t>绿色建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>自然建築</t>
+    <t>自然建筑</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sustainable_architecture</t>
@@ -491,19 +491,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%83%BD%E5%B8%82%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新都市主義</t>
+    <t>新都市主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E8%82%B2%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>保育生物學</t>
+    <t>保育生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E8%82%B2%E5%80%AB%E7%90%86</t>
   </si>
   <si>
-    <t>保育倫理</t>
+    <t>保育伦理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ecoforestry</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%B6%AD%E8%AD%B7</t>
   </si>
   <si>
-    <t>環境維護</t>
+    <t>环境维护</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Environmental_remediation</t>
@@ -533,49 +533,49 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%B8%E9%96%80</t>
   </si>
   <si>
-    <t>樸門</t>
+    <t>朴门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%BA%90%E4%BE%9B%E6%87%89</t>
   </si>
   <si>
-    <t>電源供應</t>
+    <t>电源供应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8A%9F%E7%8E%87</t>
   </si>
   <si>
-    <t>電功率</t>
+    <t>电功率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%A3%93%E9%9B%BB</t>
   </si>
   <si>
-    <t>高壓電</t>
+    <t>高压电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%B5%81%E9%9B%BB</t>
   </si>
   <si>
-    <t>直流電</t>
+    <t>直流电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E6%B5%81%E9%9B%BB</t>
   </si>
   <si>
-    <t>交流電</t>
+    <t>交流电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E7%9B%B8%E9%9B%BB</t>
   </si>
   <si>
-    <t>單相電</t>
+    <t>单相电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E7%9B%B8%E9%9B%BB</t>
   </si>
   <si>
-    <t>三相電</t>
+    <t>三相电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9F%E7%8E%87%E5%9B%A0%E6%95%B0</t>
@@ -599,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%A3%93</t>
   </si>
   <si>
-    <t>電壓</t>
+    <t>电压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E6%B5%81</t>
@@ -617,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%8D%E5%AE%9A%E5%AE%B9%E9%87%8F</t>
   </si>
   <si>
-    <t>額定容量</t>
+    <t>额定容量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E7%9B%B8_(%E7%94%B5%E5%AD%A6)</t>
@@ -635,19 +635,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%8A%9B%E7%99%BC%E9%9B%BB%E5%BB%A0</t>
   </si>
   <si>
-    <t>火力發電廠</t>
+    <t>火力发电厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%84%B6%E6%B0%A3</t>
   </si>
   <si>
-    <t>天然氣</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B9%E9%A0%81%E5%B2%A9</t>
   </si>
   <si>
-    <t>油頁岩</t>
+    <t>油页岩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%B5%E5%B2%A9%E6%B2%B9</t>
@@ -695,13 +692,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B0%B4%E6%BA%AB%E5%B7%AE%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>海水溫差發電</t>
+    <t>海水温差发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B0%B4%E9%B9%BD%E5%B7%AE%E8%83%BD</t>
   </si>
   <si>
-    <t>海水鹽差能</t>
+    <t>海水盐差能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E7%94%B5%E6%9C%BA</t>
@@ -719,7 +716,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E5%9E%8B%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>微型發電</t>
+    <t>微型发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E7%94%B5%E8%81%94%E4%BA%A7</t>
@@ -743,13 +740,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%9C%AC%E8%B2%A0%E8%BC%89%E7%99%BC%E9%9B%BB%E5%BB%A0</t>
   </si>
   <si>
-    <t>基本負載發電廠</t>
+    <t>基本负载发电厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%96%E5%B3%B0%E8%B2%A0%E8%BC%89%E7%99%BC%E9%9B%BB%E5%BB%A0</t>
   </si>
   <si>
-    <t>尖峰負載發電廠</t>
+    <t>尖峰负载发电厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E6%B0%B4%E8%93%84%E8%83%BD%E7%94%B5%E7%AB%99</t>
@@ -779,13 +776,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%B2%E6%B5%81%E9%9B%BB%E6%B1%A0</t>
   </si>
   <si>
-    <t>液流電池</t>
+    <t>液流电池</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E7%B6%B2%E5%84%B2%E8%83%BD</t>
   </si>
   <si>
-    <t>電網儲能</t>
+    <t>电网储能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9E%E8%BD%AE%E5%82%A8%E8%83%BD</t>
@@ -827,19 +824,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E5%8D%BB%E5%A1%94</t>
   </si>
   <si>
-    <t>冷卻塔</t>
+    <t>冷却塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8A%9B%E7%B7%9A%E9%80%9A%E4%BF%A1</t>
   </si>
   <si>
-    <t>電力線通信</t>
+    <t>电力线通信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E6%85%A7%E5%9E%8B%E9%9B%BB%E8%A1%A8</t>
   </si>
   <si>
-    <t>智慧型電表</t>
+    <t>智慧型电表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%97%E8%82%AF%E5%BE%AA%E7%8E%AF</t>
@@ -851,13 +848,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%B0%8E%E9%AB%94</t>
   </si>
   <si>
-    <t>超導體</t>
+    <t>超导体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%B8%E9%9B%BB%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>輸電網路</t>
+    <t>输电网路</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Transmission_tower</t>
@@ -869,25 +866,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%A3%93%E7%9B%B4%E6%B5%81%E8%BC%B8%E9%9B%BB</t>
   </si>
   <si>
-    <t>高壓直流輸電</t>
+    <t>高压直流输电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E6%85%A7%E9%9B%BB%E7%B6%B2</t>
   </si>
   <si>
-    <t>智慧電網</t>
+    <t>智慧电网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E9%9B%BB%E7%B6%B2</t>
   </si>
   <si>
-    <t>超級電網</t>
+    <t>超级电网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%8A%E9%9B%BB%E6%89%80</t>
   </si>
   <si>
-    <t>變電所</t>
+    <t>变电所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%98%E5%8E%8B%E5%99%A8</t>
@@ -905,19 +902,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E6%95%A3%E5%BC%8F%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>分散式發電</t>
+    <t>分散式发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%A3%93%E9%A9%9F%E9%99%8D</t>
   </si>
   <si>
-    <t>電壓驟降</t>
+    <t>电压骤降</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%9C%E9%9B%BB</t>
   </si>
   <si>
-    <t>停電</t>
+    <t>停电</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Rolling_blackout</t>
@@ -929,7 +926,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%A8%85</t>
   </si>
   <si>
-    <t>生態稅</t>
+    <t>生态税</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Energy_subsidies</t>
@@ -959,7 +956,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E7%B4%84%E8%83%BD%E6%BA%90</t>
   </si>
   <si>
-    <t>節約能源</t>
+    <t>节约能源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%80%E8%AE%A1%E9%87%8F%E7%94%B5%E4%BB%B7</t>
@@ -4402,7 +4399,7 @@
         <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>68</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -4428,10 +4425,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>208</v>
+      </c>
+      <c r="F107" t="s">
         <v>209</v>
-      </c>
-      <c r="F107" t="s">
-        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4457,10 +4454,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>210</v>
+      </c>
+      <c r="F108" t="s">
         <v>211</v>
-      </c>
-      <c r="F108" t="s">
-        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4486,10 +4483,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>212</v>
+      </c>
+      <c r="F109" t="s">
         <v>213</v>
-      </c>
-      <c r="F109" t="s">
-        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4515,10 +4512,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>214</v>
+      </c>
+      <c r="F110" t="s">
         <v>215</v>
-      </c>
-      <c r="F110" t="s">
-        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4573,10 +4570,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>216</v>
+      </c>
+      <c r="F112" t="s">
         <v>217</v>
-      </c>
-      <c r="F112" t="s">
-        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4602,10 +4599,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>218</v>
+      </c>
+      <c r="F113" t="s">
         <v>219</v>
-      </c>
-      <c r="F113" t="s">
-        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4631,10 +4628,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>220</v>
+      </c>
+      <c r="F114" t="s">
         <v>221</v>
-      </c>
-      <c r="F114" t="s">
-        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4660,10 +4657,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>222</v>
+      </c>
+      <c r="F115" t="s">
         <v>223</v>
-      </c>
-      <c r="F115" t="s">
-        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4689,10 +4686,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" t="s">
         <v>225</v>
-      </c>
-      <c r="F116" t="s">
-        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4718,10 +4715,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117" t="s">
         <v>227</v>
-      </c>
-      <c r="F117" t="s">
-        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4805,10 +4802,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>228</v>
+      </c>
+      <c r="F120" t="s">
         <v>229</v>
-      </c>
-      <c r="F120" t="s">
-        <v>230</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4834,10 +4831,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>230</v>
+      </c>
+      <c r="F121" t="s">
         <v>231</v>
-      </c>
-      <c r="F121" t="s">
-        <v>232</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4863,10 +4860,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>232</v>
+      </c>
+      <c r="F122" t="s">
         <v>233</v>
-      </c>
-      <c r="F122" t="s">
-        <v>234</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4892,10 +4889,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>234</v>
+      </c>
+      <c r="F123" t="s">
         <v>235</v>
-      </c>
-      <c r="F123" t="s">
-        <v>236</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -4921,10 +4918,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>236</v>
+      </c>
+      <c r="F124" t="s">
         <v>237</v>
-      </c>
-      <c r="F124" t="s">
-        <v>238</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4950,10 +4947,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>238</v>
+      </c>
+      <c r="F125" t="s">
         <v>239</v>
-      </c>
-      <c r="F125" t="s">
-        <v>240</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4979,10 +4976,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>240</v>
+      </c>
+      <c r="F126" t="s">
         <v>241</v>
-      </c>
-      <c r="F126" t="s">
-        <v>242</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5008,10 +5005,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>242</v>
+      </c>
+      <c r="F127" t="s">
         <v>243</v>
-      </c>
-      <c r="F127" t="s">
-        <v>244</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5066,10 +5063,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>244</v>
+      </c>
+      <c r="F129" t="s">
         <v>245</v>
-      </c>
-      <c r="F129" t="s">
-        <v>246</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5095,10 +5092,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>246</v>
+      </c>
+      <c r="F130" t="s">
         <v>247</v>
-      </c>
-      <c r="F130" t="s">
-        <v>248</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5124,10 +5121,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>248</v>
+      </c>
+      <c r="F131" t="s">
         <v>249</v>
-      </c>
-      <c r="F131" t="s">
-        <v>250</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5153,10 +5150,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>250</v>
+      </c>
+      <c r="F132" t="s">
         <v>251</v>
-      </c>
-      <c r="F132" t="s">
-        <v>252</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5182,10 +5179,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>252</v>
+      </c>
+      <c r="F133" t="s">
         <v>253</v>
-      </c>
-      <c r="F133" t="s">
-        <v>254</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5211,10 +5208,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>254</v>
+      </c>
+      <c r="F134" t="s">
         <v>255</v>
-      </c>
-      <c r="F134" t="s">
-        <v>256</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5240,10 +5237,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>256</v>
+      </c>
+      <c r="F135" t="s">
         <v>257</v>
-      </c>
-      <c r="F135" t="s">
-        <v>258</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5269,10 +5266,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>258</v>
+      </c>
+      <c r="F136" t="s">
         <v>259</v>
-      </c>
-      <c r="F136" t="s">
-        <v>260</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5298,10 +5295,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>260</v>
+      </c>
+      <c r="F137" t="s">
         <v>261</v>
-      </c>
-      <c r="F137" t="s">
-        <v>262</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5327,10 +5324,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>262</v>
+      </c>
+      <c r="F138" t="s">
         <v>263</v>
-      </c>
-      <c r="F138" t="s">
-        <v>264</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5356,10 +5353,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>264</v>
+      </c>
+      <c r="F139" t="s">
         <v>265</v>
-      </c>
-      <c r="F139" t="s">
-        <v>266</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5385,10 +5382,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>266</v>
+      </c>
+      <c r="F140" t="s">
         <v>267</v>
-      </c>
-      <c r="F140" t="s">
-        <v>268</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5414,10 +5411,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>268</v>
+      </c>
+      <c r="F141" t="s">
         <v>269</v>
-      </c>
-      <c r="F141" t="s">
-        <v>270</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5443,10 +5440,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>270</v>
+      </c>
+      <c r="F142" t="s">
         <v>271</v>
-      </c>
-      <c r="F142" t="s">
-        <v>272</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5472,10 +5469,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>272</v>
+      </c>
+      <c r="F143" t="s">
         <v>273</v>
-      </c>
-      <c r="F143" t="s">
-        <v>274</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5501,10 +5498,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>274</v>
+      </c>
+      <c r="F144" t="s">
         <v>275</v>
-      </c>
-      <c r="F144" t="s">
-        <v>276</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5530,10 +5527,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>276</v>
+      </c>
+      <c r="F145" t="s">
         <v>277</v>
-      </c>
-      <c r="F145" t="s">
-        <v>278</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5559,10 +5556,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>278</v>
+      </c>
+      <c r="F146" t="s">
         <v>279</v>
-      </c>
-      <c r="F146" t="s">
-        <v>280</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5588,10 +5585,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>280</v>
+      </c>
+      <c r="F147" t="s">
         <v>281</v>
-      </c>
-      <c r="F147" t="s">
-        <v>282</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5617,10 +5614,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>282</v>
+      </c>
+      <c r="F148" t="s">
         <v>283</v>
-      </c>
-      <c r="F148" t="s">
-        <v>284</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5646,10 +5643,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>284</v>
+      </c>
+      <c r="F149" t="s">
         <v>285</v>
-      </c>
-      <c r="F149" t="s">
-        <v>286</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5675,10 +5672,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>286</v>
+      </c>
+      <c r="F150" t="s">
         <v>287</v>
-      </c>
-      <c r="F150" t="s">
-        <v>288</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5704,10 +5701,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>288</v>
+      </c>
+      <c r="F151" t="s">
         <v>289</v>
-      </c>
-      <c r="F151" t="s">
-        <v>290</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5733,10 +5730,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>290</v>
+      </c>
+      <c r="F152" t="s">
         <v>291</v>
-      </c>
-      <c r="F152" t="s">
-        <v>292</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5762,10 +5759,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>292</v>
+      </c>
+      <c r="F153" t="s">
         <v>293</v>
-      </c>
-      <c r="F153" t="s">
-        <v>294</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5791,10 +5788,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>294</v>
+      </c>
+      <c r="F154" t="s">
         <v>295</v>
-      </c>
-      <c r="F154" t="s">
-        <v>296</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5820,10 +5817,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>296</v>
+      </c>
+      <c r="F155" t="s">
         <v>297</v>
-      </c>
-      <c r="F155" t="s">
-        <v>298</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5849,10 +5846,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>298</v>
+      </c>
+      <c r="F156" t="s">
         <v>299</v>
-      </c>
-      <c r="F156" t="s">
-        <v>300</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5878,10 +5875,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>300</v>
+      </c>
+      <c r="F157" t="s">
         <v>301</v>
-      </c>
-      <c r="F157" t="s">
-        <v>302</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5907,10 +5904,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>302</v>
+      </c>
+      <c r="F158" t="s">
         <v>303</v>
-      </c>
-      <c r="F158" t="s">
-        <v>304</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5936,10 +5933,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>304</v>
+      </c>
+      <c r="F159" t="s">
         <v>305</v>
-      </c>
-      <c r="F159" t="s">
-        <v>306</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -5965,10 +5962,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>306</v>
+      </c>
+      <c r="F160" t="s">
         <v>307</v>
-      </c>
-      <c r="F160" t="s">
-        <v>308</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -5994,10 +5991,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>308</v>
+      </c>
+      <c r="F161" t="s">
         <v>309</v>
-      </c>
-      <c r="F161" t="s">
-        <v>310</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6052,10 +6049,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>310</v>
+      </c>
+      <c r="F163" t="s">
         <v>311</v>
-      </c>
-      <c r="F163" t="s">
-        <v>312</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6081,10 +6078,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>312</v>
+      </c>
+      <c r="F164" t="s">
         <v>313</v>
-      </c>
-      <c r="F164" t="s">
-        <v>314</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6110,10 +6107,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>314</v>
+      </c>
+      <c r="F165" t="s">
         <v>315</v>
-      </c>
-      <c r="F165" t="s">
-        <v>316</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6139,10 +6136,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>316</v>
+      </c>
+      <c r="F166" t="s">
         <v>317</v>
-      </c>
-      <c r="F166" t="s">
-        <v>318</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6168,10 +6165,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>318</v>
+      </c>
+      <c r="F167" t="s">
         <v>319</v>
-      </c>
-      <c r="F167" t="s">
-        <v>320</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6197,10 +6194,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>320</v>
+      </c>
+      <c r="F168" t="s">
         <v>321</v>
-      </c>
-      <c r="F168" t="s">
-        <v>322</v>
       </c>
       <c r="G168" t="n">
         <v>14</v>
@@ -6226,10 +6223,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F169" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
